--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_16ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_16ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -3052,28 +3052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>266.2943716829104</v>
+        <v>339.1104202604046</v>
       </c>
       <c r="AB2" t="n">
-        <v>364.3557074151</v>
+        <v>463.9858374961696</v>
       </c>
       <c r="AC2" t="n">
-        <v>329.5821100758492</v>
+        <v>419.7036803737474</v>
       </c>
       <c r="AD2" t="n">
-        <v>266294.3716829104</v>
+        <v>339110.4202604046</v>
       </c>
       <c r="AE2" t="n">
-        <v>364355.7074151</v>
+        <v>463985.8374961696</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.609210272172297e-06</v>
+        <v>2.720449808007717e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.58680555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>329582.1100758492</v>
+        <v>419703.6803737474</v>
       </c>
     </row>
     <row r="3">
@@ -3158,28 +3158,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>205.3772051227473</v>
+        <v>257.3643747996302</v>
       </c>
       <c r="AB3" t="n">
-        <v>281.006152651638</v>
+        <v>352.1372917155716</v>
       </c>
       <c r="AC3" t="n">
-        <v>254.1873198372604</v>
+        <v>318.5298028221355</v>
       </c>
       <c r="AD3" t="n">
-        <v>205377.2051227473</v>
+        <v>257364.3747996302</v>
       </c>
       <c r="AE3" t="n">
-        <v>281006.152651638</v>
+        <v>352137.2917155715</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.018153499355417e-06</v>
+        <v>3.411788623770172e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.04340277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>254187.3198372604</v>
+        <v>318529.8028221356</v>
       </c>
     </row>
     <row r="4">
@@ -3264,28 +3264,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>183.9415061858035</v>
+        <v>235.8433350081148</v>
       </c>
       <c r="AB4" t="n">
-        <v>251.6768836898315</v>
+        <v>322.6912556315676</v>
       </c>
       <c r="AC4" t="n">
-        <v>227.6571951412719</v>
+        <v>291.8940550942083</v>
       </c>
       <c r="AD4" t="n">
-        <v>183941.5061858035</v>
+        <v>235843.3350081148</v>
       </c>
       <c r="AE4" t="n">
-        <v>251676.8836898315</v>
+        <v>322691.2556315676</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.174168141506785e-06</v>
+        <v>3.675539117180917e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.322916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>227657.1951412719</v>
+        <v>291894.0550942083</v>
       </c>
     </row>
     <row r="5">
@@ -3370,28 +3370,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>178.3233088416205</v>
+        <v>219.9813351684943</v>
       </c>
       <c r="AB5" t="n">
-        <v>243.9898182261503</v>
+        <v>300.9881676689649</v>
       </c>
       <c r="AC5" t="n">
-        <v>220.7037724165779</v>
+        <v>272.2622793862743</v>
       </c>
       <c r="AD5" t="n">
-        <v>178323.3088416205</v>
+        <v>219981.3351684943</v>
       </c>
       <c r="AE5" t="n">
-        <v>243989.8182261503</v>
+        <v>300988.1676689649</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.249234432523961e-06</v>
+        <v>3.802442406649642e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.010416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>220703.7724165778</v>
+        <v>272262.2793862743</v>
       </c>
     </row>
     <row r="6">
@@ -3476,28 +3476,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>163.967793613083</v>
+        <v>215.9548737814148</v>
       </c>
       <c r="AB6" t="n">
-        <v>224.3479689698407</v>
+        <v>295.4789855642259</v>
       </c>
       <c r="AC6" t="n">
-        <v>202.9365136857756</v>
+        <v>267.2788858894243</v>
       </c>
       <c r="AD6" t="n">
-        <v>163967.793613083</v>
+        <v>215954.8737814148</v>
       </c>
       <c r="AE6" t="n">
-        <v>224347.9689698407</v>
+        <v>295478.9855642259</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.302056266035113e-06</v>
+        <v>3.891740337018959e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.802083333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>202936.5136857756</v>
+        <v>267278.8858894242</v>
       </c>
     </row>
     <row r="7">
@@ -3582,28 +3582,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>160.3033464047338</v>
+        <v>212.2904265730656</v>
       </c>
       <c r="AB7" t="n">
-        <v>219.3341106353787</v>
+        <v>290.465127229764</v>
       </c>
       <c r="AC7" t="n">
-        <v>198.4011709537588</v>
+        <v>262.7435431574074</v>
       </c>
       <c r="AD7" t="n">
-        <v>160303.3464047338</v>
+        <v>212290.4265730656</v>
       </c>
       <c r="AE7" t="n">
-        <v>219334.1106353787</v>
+        <v>290465.127229764</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.342553783110611e-06</v>
+        <v>3.960203398968037e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.645833333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>198401.1709537588</v>
+        <v>262743.5431574074</v>
       </c>
     </row>
     <row r="8">
@@ -3688,28 +3688,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>158.0867860899312</v>
+        <v>210.073866258263</v>
       </c>
       <c r="AB8" t="n">
-        <v>216.3013150249277</v>
+        <v>287.4323316193129</v>
       </c>
       <c r="AC8" t="n">
-        <v>195.6578210998128</v>
+        <v>260.0001933034614</v>
       </c>
       <c r="AD8" t="n">
-        <v>158086.7860899312</v>
+        <v>210073.866258263</v>
       </c>
       <c r="AE8" t="n">
-        <v>216301.3150249277</v>
+        <v>287432.3316193129</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.356208565525116e-06</v>
+        <v>3.983287486138188e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.602430555555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>195657.8210998128</v>
+        <v>260000.1933034614</v>
       </c>
     </row>
     <row r="9">
@@ -3794,28 +3794,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>155.3910231023567</v>
+        <v>197.134300775251</v>
       </c>
       <c r="AB9" t="n">
-        <v>212.6128531766606</v>
+        <v>269.7278472721246</v>
       </c>
       <c r="AC9" t="n">
-        <v>192.3213808735545</v>
+        <v>243.9854000939632</v>
       </c>
       <c r="AD9" t="n">
-        <v>155391.0231023566</v>
+        <v>197134.300775251</v>
       </c>
       <c r="AE9" t="n">
-        <v>212612.8531766606</v>
+        <v>269727.8472721245</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.382724519068496e-06</v>
+        <v>4.028114021224156e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.506944444444445</v>
       </c>
       <c r="AH9" t="n">
-        <v>192321.3808735545</v>
+        <v>243985.4000939632</v>
       </c>
     </row>
     <row r="10">
@@ -3900,28 +3900,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>155.579646804124</v>
+        <v>197.3229244770183</v>
       </c>
       <c r="AB10" t="n">
-        <v>212.870936446909</v>
+        <v>269.9859305423728</v>
       </c>
       <c r="AC10" t="n">
-        <v>192.5548330387126</v>
+        <v>244.2188522591213</v>
       </c>
       <c r="AD10" t="n">
-        <v>155579.646804124</v>
+        <v>197322.9244770184</v>
       </c>
       <c r="AE10" t="n">
-        <v>212870.936446909</v>
+        <v>269985.9305423729</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.381790858732461e-06</v>
+        <v>4.02653562210141e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.506944444444445</v>
       </c>
       <c r="AH10" t="n">
-        <v>192554.8330387126</v>
+        <v>244218.8522591213</v>
       </c>
     </row>
   </sheetData>
@@ -4197,28 +4197,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>221.3057681245967</v>
+        <v>281.678582987168</v>
       </c>
       <c r="AB2" t="n">
-        <v>302.8003152693616</v>
+        <v>385.4050640250875</v>
       </c>
       <c r="AC2" t="n">
-        <v>273.9014781630548</v>
+        <v>348.622545633937</v>
       </c>
       <c r="AD2" t="n">
-        <v>221305.7681245967</v>
+        <v>281678.582987168</v>
       </c>
       <c r="AE2" t="n">
-        <v>302800.3152693616</v>
+        <v>385405.0640250875</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.861426753561658e-06</v>
+        <v>3.223602112906529e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.25868055555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>273901.4781630548</v>
+        <v>348622.545633937</v>
       </c>
     </row>
     <row r="3">
@@ -4303,28 +4303,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>175.0358248455334</v>
+        <v>225.3180718642412</v>
       </c>
       <c r="AB3" t="n">
-        <v>239.4917375891481</v>
+        <v>308.2901262562886</v>
       </c>
       <c r="AC3" t="n">
-        <v>216.634982282474</v>
+        <v>278.8673492943894</v>
       </c>
       <c r="AD3" t="n">
-        <v>175035.8248455334</v>
+        <v>225318.0718642412</v>
       </c>
       <c r="AE3" t="n">
-        <v>239491.7375891481</v>
+        <v>308290.1262562886</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.22364785813142e-06</v>
+        <v>3.850893364521037e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.427083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>216634.982282474</v>
+        <v>278867.3492943894</v>
       </c>
     </row>
     <row r="4">
@@ -4409,28 +4409,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>156.5215502351645</v>
+        <v>206.8890485998929</v>
       </c>
       <c r="AB4" t="n">
-        <v>214.1596902751047</v>
+        <v>283.0747235948944</v>
       </c>
       <c r="AC4" t="n">
-        <v>193.720590010323</v>
+        <v>256.0584692729507</v>
       </c>
       <c r="AD4" t="n">
-        <v>156521.5502351645</v>
+        <v>206889.0485998929</v>
       </c>
       <c r="AE4" t="n">
-        <v>214159.6902751047</v>
+        <v>283074.7235948943</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.360171964873467e-06</v>
+        <v>4.087324584881576e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.880208333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>193720.590010323</v>
+        <v>256058.4692729507</v>
       </c>
     </row>
     <row r="5">
@@ -4515,28 +4515,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>151.6578468863644</v>
+        <v>202.0253452510927</v>
       </c>
       <c r="AB5" t="n">
-        <v>207.5049567818315</v>
+        <v>276.4199901016212</v>
       </c>
       <c r="AC5" t="n">
-        <v>187.7009749416686</v>
+        <v>250.0388542042963</v>
       </c>
       <c r="AD5" t="n">
-        <v>151657.8468863644</v>
+        <v>202025.3452510927</v>
       </c>
       <c r="AE5" t="n">
-        <v>207504.9567818315</v>
+        <v>276419.9901016213</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.434108437254816e-06</v>
+        <v>4.215367102876618e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.611111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>187700.9749416686</v>
+        <v>250038.8542042963</v>
       </c>
     </row>
     <row r="6">
@@ -4621,28 +4621,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>147.911772233399</v>
+        <v>188.1887922628184</v>
       </c>
       <c r="AB6" t="n">
-        <v>202.3794121764971</v>
+        <v>257.4882078774377</v>
       </c>
       <c r="AC6" t="n">
-        <v>183.0646051197186</v>
+        <v>232.9138947046596</v>
       </c>
       <c r="AD6" t="n">
-        <v>147911.772233399</v>
+        <v>188188.7922628184</v>
       </c>
       <c r="AE6" t="n">
-        <v>202379.4121764971</v>
+        <v>257488.2078774377</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.473032537019262e-06</v>
+        <v>4.282775508823061e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.472222222222221</v>
       </c>
       <c r="AH6" t="n">
-        <v>183064.6051197186</v>
+        <v>232913.8947046596</v>
       </c>
     </row>
     <row r="7">
@@ -4727,28 +4727,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>145.5783475427629</v>
+        <v>185.8553675721824</v>
       </c>
       <c r="AB7" t="n">
-        <v>199.1867175713384</v>
+        <v>254.2955132722791</v>
       </c>
       <c r="AC7" t="n">
-        <v>180.1766168067003</v>
+        <v>230.0259063916412</v>
       </c>
       <c r="AD7" t="n">
-        <v>145578.3475427629</v>
+        <v>185855.3675721824</v>
       </c>
       <c r="AE7" t="n">
-        <v>199186.7175713384</v>
+        <v>254295.5132722791</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.500269748268825e-06</v>
+        <v>4.329944666333971e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.385416666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>180176.6168067003</v>
+        <v>230025.9063916412</v>
       </c>
     </row>
     <row r="8">
@@ -4833,28 +4833,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>145.7536532576719</v>
+        <v>186.0306732870912</v>
       </c>
       <c r="AB8" t="n">
-        <v>199.426578584419</v>
+        <v>254.5353742853596</v>
       </c>
       <c r="AC8" t="n">
-        <v>180.3935858213396</v>
+        <v>230.2428754062805</v>
       </c>
       <c r="AD8" t="n">
-        <v>145753.6532576719</v>
+        <v>186030.6732870913</v>
       </c>
       <c r="AE8" t="n">
-        <v>199426.578584419</v>
+        <v>254535.3742853596</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.499931697774593e-06</v>
+        <v>4.329359233527984e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.385416666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>180393.5858213396</v>
+        <v>230242.8754062805</v>
       </c>
     </row>
   </sheetData>
@@ -5130,28 +5130,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>128.7997107549611</v>
+        <v>174.2911979639657</v>
       </c>
       <c r="AB2" t="n">
-        <v>176.2294464970666</v>
+        <v>238.4729062391682</v>
       </c>
       <c r="AC2" t="n">
-        <v>159.4103554630174</v>
+        <v>215.713386766597</v>
       </c>
       <c r="AD2" t="n">
-        <v>128799.7107549611</v>
+        <v>174291.1979639657</v>
       </c>
       <c r="AE2" t="n">
-        <v>176229.4464970666</v>
+        <v>238472.9062391682</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.628758179988717e-06</v>
+        <v>4.974176158274157e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.897569444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>159410.3554630174</v>
+        <v>215713.386766597</v>
       </c>
     </row>
     <row r="3">
@@ -5236,28 +5236,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>120.1646694347652</v>
+        <v>156.5408805396056</v>
       </c>
       <c r="AB3" t="n">
-        <v>164.4146020116436</v>
+        <v>214.1861388504337</v>
       </c>
       <c r="AC3" t="n">
-        <v>148.723103153041</v>
+        <v>193.7445143707435</v>
       </c>
       <c r="AD3" t="n">
-        <v>120164.6694347652</v>
+        <v>156540.8805396056</v>
       </c>
       <c r="AE3" t="n">
-        <v>164414.6020116436</v>
+        <v>214186.1388504337</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.845953248752698e-06</v>
+        <v>5.385155966521544e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.220486111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>148723.103153041</v>
+        <v>193744.5143707435</v>
       </c>
     </row>
     <row r="4">
@@ -5342,28 +5342,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>120.4720739945367</v>
+        <v>156.8482850993771</v>
       </c>
       <c r="AB4" t="n">
-        <v>164.8352064920547</v>
+        <v>214.6067433308449</v>
       </c>
       <c r="AC4" t="n">
-        <v>149.1035657321639</v>
+        <v>194.1249769498665</v>
       </c>
       <c r="AD4" t="n">
-        <v>120472.0739945367</v>
+        <v>156848.285099377</v>
       </c>
       <c r="AE4" t="n">
-        <v>164835.2064920547</v>
+        <v>214606.7433308449</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.84568380939187e-06</v>
+        <v>5.384646129270276e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.220486111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>149103.5657321639</v>
+        <v>194124.9769498665</v>
       </c>
     </row>
   </sheetData>
@@ -5639,28 +5639,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>158.7110633638531</v>
+        <v>206.1942172587148</v>
       </c>
       <c r="AB2" t="n">
-        <v>217.1554787322768</v>
+        <v>282.1240247000996</v>
       </c>
       <c r="AC2" t="n">
-        <v>196.4304646217591</v>
+        <v>255.1985037463606</v>
       </c>
       <c r="AD2" t="n">
-        <v>158711.0633638531</v>
+        <v>206194.2172587148</v>
       </c>
       <c r="AE2" t="n">
-        <v>217155.4787322768</v>
+        <v>282124.0247000996</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.321268705040431e-06</v>
+        <v>4.228847459563157e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.635416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>196430.4646217591</v>
+        <v>255198.5037463606</v>
       </c>
     </row>
     <row r="3">
@@ -5745,28 +5745,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>134.78817964323</v>
+        <v>172.860043613691</v>
       </c>
       <c r="AB3" t="n">
-        <v>184.4231338225936</v>
+        <v>236.5147377190494</v>
       </c>
       <c r="AC3" t="n">
-        <v>166.822048770111</v>
+        <v>213.942103101731</v>
       </c>
       <c r="AD3" t="n">
-        <v>134788.17964323</v>
+        <v>172860.043613691</v>
       </c>
       <c r="AE3" t="n">
-        <v>184423.1338225936</v>
+        <v>236514.7377190494</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.626976911691769e-06</v>
+        <v>4.785781419969347e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.515625</v>
       </c>
       <c r="AH3" t="n">
-        <v>166822.048770111</v>
+        <v>213942.103101731</v>
       </c>
     </row>
     <row r="4">
@@ -5851,28 +5851,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>129.5794725131958</v>
+        <v>167.4807442830646</v>
       </c>
       <c r="AB4" t="n">
-        <v>177.2963509353437</v>
+        <v>229.1545430569527</v>
       </c>
       <c r="AC4" t="n">
-        <v>160.3754360391154</v>
+        <v>207.2843550880843</v>
       </c>
       <c r="AD4" t="n">
-        <v>129579.4725131958</v>
+        <v>167480.7442830646</v>
       </c>
       <c r="AE4" t="n">
-        <v>177296.3509353437</v>
+        <v>229154.5430569527</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.715596204648539e-06</v>
+        <v>4.947226525861124e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.237847222222221</v>
       </c>
       <c r="AH4" t="n">
-        <v>160375.4360391154</v>
+        <v>207284.3550880843</v>
       </c>
     </row>
     <row r="5">
@@ -5957,28 +5957,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>129.8170855571628</v>
+        <v>167.7183573270316</v>
       </c>
       <c r="AB5" t="n">
-        <v>177.6214635848468</v>
+        <v>229.4796557064558</v>
       </c>
       <c r="AC5" t="n">
-        <v>160.6695203936485</v>
+        <v>207.5784394426174</v>
       </c>
       <c r="AD5" t="n">
-        <v>129817.0855571628</v>
+        <v>167718.3573270316</v>
       </c>
       <c r="AE5" t="n">
-        <v>177621.4635848468</v>
+        <v>229479.6557064558</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.715596204648539e-06</v>
+        <v>4.947226525861124e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.237847222222221</v>
       </c>
       <c r="AH5" t="n">
-        <v>160669.5203936485</v>
+        <v>207578.4394426174</v>
       </c>
     </row>
   </sheetData>
@@ -6254,28 +6254,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.9636979780306</v>
+        <v>149.0890465002788</v>
       </c>
       <c r="AB2" t="n">
-        <v>155.9301592969903</v>
+        <v>203.9902107661162</v>
       </c>
       <c r="AC2" t="n">
-        <v>141.0484037430814</v>
+        <v>184.5216713527151</v>
       </c>
       <c r="AD2" t="n">
-        <v>113963.6979780306</v>
+        <v>149089.0465002788</v>
       </c>
       <c r="AE2" t="n">
-        <v>155930.1592969903</v>
+        <v>203990.2107661162</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.897360256486802e-06</v>
+        <v>5.677892571884484e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.385416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>141048.4037430814</v>
+        <v>184521.6713527151</v>
       </c>
     </row>
     <row r="3">
@@ -6360,28 +6360,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>113.4857891491127</v>
+        <v>148.6111376713609</v>
       </c>
       <c r="AB3" t="n">
-        <v>155.2762633534157</v>
+        <v>203.3363148225416</v>
       </c>
       <c r="AC3" t="n">
-        <v>140.4569147106126</v>
+        <v>183.9301823202463</v>
       </c>
       <c r="AD3" t="n">
-        <v>113485.7891491127</v>
+        <v>148611.1376713609</v>
       </c>
       <c r="AE3" t="n">
-        <v>155276.2633534156</v>
+        <v>203336.3148225416</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.921370137883638e-06</v>
+        <v>5.724944203427269e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.315972222222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>140456.9147106126</v>
+        <v>183930.1823202463</v>
       </c>
     </row>
   </sheetData>
@@ -6657,28 +6657,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>230.3452265721745</v>
+        <v>291.3994655122738</v>
       </c>
       <c r="AB2" t="n">
-        <v>315.1685011100926</v>
+        <v>398.7056043510073</v>
       </c>
       <c r="AC2" t="n">
-        <v>285.0892617060083</v>
+        <v>360.6537010585766</v>
       </c>
       <c r="AD2" t="n">
-        <v>230345.2265721745</v>
+        <v>291399.4655122738</v>
       </c>
       <c r="AE2" t="n">
-        <v>315168.5011100926</v>
+        <v>398705.6043510073</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.787011526442875e-06</v>
+        <v>3.074519748454351e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.62326388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>285089.2617060083</v>
+        <v>360653.7010585766</v>
       </c>
     </row>
     <row r="3">
@@ -6763,28 +6763,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>179.6442516835434</v>
+        <v>230.5227841336232</v>
       </c>
       <c r="AB3" t="n">
-        <v>245.7971904983535</v>
+        <v>315.4114431989533</v>
       </c>
       <c r="AC3" t="n">
-        <v>222.3386516157855</v>
+        <v>285.3090177428796</v>
       </c>
       <c r="AD3" t="n">
-        <v>179644.2516835434</v>
+        <v>230522.7841336232</v>
       </c>
       <c r="AE3" t="n">
-        <v>245797.1904983535</v>
+        <v>315411.4431989533</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.171966324721973e-06</v>
+        <v>3.736827244549387e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.565972222222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>222338.6516157855</v>
+        <v>285309.0177428796</v>
       </c>
     </row>
     <row r="4">
@@ -6869,28 +6869,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>171.1804129346263</v>
+        <v>211.8833284032411</v>
       </c>
       <c r="AB4" t="n">
-        <v>234.2165929238785</v>
+        <v>289.9081175539067</v>
       </c>
       <c r="AC4" t="n">
-        <v>211.8632900203439</v>
+        <v>262.2396937032457</v>
       </c>
       <c r="AD4" t="n">
-        <v>171180.4129346263</v>
+        <v>211883.3284032411</v>
       </c>
       <c r="AE4" t="n">
-        <v>234216.5929238785</v>
+        <v>289908.1175539067</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.306905101839884e-06</v>
+        <v>3.968986874715355e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.001736111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>211863.2900203439</v>
+        <v>262239.6937032457</v>
       </c>
     </row>
     <row r="5">
@@ -6975,28 +6975,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>155.88946386615</v>
+        <v>206.6826554616581</v>
       </c>
       <c r="AB5" t="n">
-        <v>213.2948418193369</v>
+        <v>282.792327397739</v>
       </c>
       <c r="AC5" t="n">
-        <v>192.938281477351</v>
+        <v>255.8030245725062</v>
       </c>
       <c r="AD5" t="n">
-        <v>155889.46386615</v>
+        <v>206682.6554616581</v>
       </c>
       <c r="AE5" t="n">
-        <v>213294.8418193368</v>
+        <v>282792.327397739</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.381780688575466e-06</v>
+        <v>4.097808914578684e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.723958333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>192938.281477351</v>
+        <v>255803.0245725062</v>
       </c>
     </row>
     <row r="6">
@@ -7081,28 +7081,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>151.7118925656701</v>
+        <v>192.5000593803055</v>
       </c>
       <c r="AB6" t="n">
-        <v>207.5789044645847</v>
+        <v>263.3870737472622</v>
       </c>
       <c r="AC6" t="n">
-        <v>187.7678651613661</v>
+        <v>238.2497810949801</v>
       </c>
       <c r="AD6" t="n">
-        <v>151711.8925656701</v>
+        <v>192500.0593803055</v>
       </c>
       <c r="AE6" t="n">
-        <v>207578.9044645847</v>
+        <v>263387.0737472622</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.434329997770524e-06</v>
+        <v>4.188219013504816e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.532986111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>187767.8651613661</v>
+        <v>238249.7810949801</v>
       </c>
     </row>
     <row r="7">
@@ -7187,28 +7187,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>148.905188617181</v>
+        <v>189.5227632312242</v>
       </c>
       <c r="AB7" t="n">
-        <v>203.7386482992247</v>
+        <v>259.3134058070553</v>
       </c>
       <c r="AC7" t="n">
-        <v>184.2941176545934</v>
+        <v>234.5648983055565</v>
       </c>
       <c r="AD7" t="n">
-        <v>148905.188617181</v>
+        <v>189522.7632312242</v>
       </c>
       <c r="AE7" t="n">
-        <v>203738.6482992247</v>
+        <v>259313.4058070553</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.462447228327989e-06</v>
+        <v>4.236594180279955e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.4375</v>
       </c>
       <c r="AH7" t="n">
-        <v>184294.1176545934</v>
+        <v>234564.8983055564</v>
       </c>
     </row>
     <row r="8">
@@ -7293,28 +7293,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>147.6483589678026</v>
+        <v>188.2659335818458</v>
       </c>
       <c r="AB8" t="n">
-        <v>202.0189985255351</v>
+        <v>257.5937560333657</v>
       </c>
       <c r="AC8" t="n">
-        <v>182.7385888417606</v>
+        <v>233.0093694927237</v>
       </c>
       <c r="AD8" t="n">
-        <v>147648.3589678026</v>
+        <v>188265.9335818458</v>
       </c>
       <c r="AE8" t="n">
-        <v>202018.9985255351</v>
+        <v>257593.7560333657</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.475823851205966e-06</v>
+        <v>4.259608408558511e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.394097222222221</v>
       </c>
       <c r="AH8" t="n">
-        <v>182738.5888417606</v>
+        <v>233009.3694927237</v>
       </c>
     </row>
   </sheetData>
@@ -7590,28 +7590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.2588016295351</v>
+        <v>143.6434522151991</v>
       </c>
       <c r="AB2" t="n">
-        <v>149.4927125476043</v>
+        <v>196.5393084226096</v>
       </c>
       <c r="AC2" t="n">
-        <v>135.2253378764414</v>
+        <v>177.7818726714632</v>
       </c>
       <c r="AD2" t="n">
-        <v>109258.8016295351</v>
+        <v>143643.4522151991</v>
       </c>
       <c r="AE2" t="n">
-        <v>149492.7125476043</v>
+        <v>196539.3084226096</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.94256778743664e-06</v>
+        <v>5.898849048951804e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.446180555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>135225.3378764415</v>
+        <v>177781.8726714632</v>
       </c>
     </row>
   </sheetData>
@@ -7887,28 +7887,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>189.1344698897936</v>
+        <v>238.1204772653471</v>
       </c>
       <c r="AB2" t="n">
-        <v>258.7821257270169</v>
+        <v>325.8069421283375</v>
       </c>
       <c r="AC2" t="n">
-        <v>234.0843228507005</v>
+        <v>294.712384844621</v>
       </c>
       <c r="AD2" t="n">
-        <v>189134.4698897936</v>
+        <v>238120.4772653471</v>
       </c>
       <c r="AE2" t="n">
-        <v>258782.1257270169</v>
+        <v>325806.9421283375</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.073186716319317e-06</v>
+        <v>3.671767726679256e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.41666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>234084.3228507005</v>
+        <v>294712.384844621</v>
       </c>
     </row>
     <row r="3">
@@ -7993,28 +7993,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>150.1045540249781</v>
+        <v>199.0904718919806</v>
       </c>
       <c r="AB3" t="n">
-        <v>205.3796729624393</v>
+        <v>272.4043668942115</v>
       </c>
       <c r="AC3" t="n">
-        <v>185.7785252271439</v>
+        <v>246.4064764398379</v>
       </c>
       <c r="AD3" t="n">
-        <v>150104.5540249781</v>
+        <v>199090.4718919806</v>
       </c>
       <c r="AE3" t="n">
-        <v>205379.6729624392</v>
+        <v>272404.3668942115</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.408496984311011e-06</v>
+        <v>4.265627127159055e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.967013888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>185778.525227144</v>
+        <v>246406.4764398379</v>
       </c>
     </row>
     <row r="4">
@@ -8099,28 +8099,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>142.9320106648866</v>
+        <v>182.2743584967174</v>
       </c>
       <c r="AB4" t="n">
-        <v>195.5658827068864</v>
+        <v>249.3958186722598</v>
       </c>
       <c r="AC4" t="n">
-        <v>176.9013493398367</v>
+        <v>225.5938317674818</v>
       </c>
       <c r="AD4" t="n">
-        <v>142932.0106648866</v>
+        <v>182274.3584967174</v>
       </c>
       <c r="AE4" t="n">
-        <v>195565.8827068864</v>
+        <v>249395.8186722599</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.527564720073605e-06</v>
+        <v>4.476504934748928e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.541666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>176901.3493398367</v>
+        <v>225593.8317674818</v>
       </c>
     </row>
     <row r="5">
@@ -8205,28 +8205,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>138.3697467673401</v>
+        <v>177.5415023985788</v>
       </c>
       <c r="AB5" t="n">
-        <v>189.3235919693884</v>
+        <v>242.920116159915</v>
       </c>
       <c r="AC5" t="n">
-        <v>171.2548140692136</v>
+        <v>219.7361612142075</v>
       </c>
       <c r="AD5" t="n">
-        <v>138369.7467673401</v>
+        <v>177541.5023985788</v>
       </c>
       <c r="AE5" t="n">
-        <v>189323.5919693884</v>
+        <v>242920.1161599151</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.590357650509206e-06</v>
+        <v>4.587715880498372e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>171254.8140692135</v>
+        <v>219736.1612142075</v>
       </c>
     </row>
     <row r="6">
@@ -8311,28 +8311,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>137.871756099982</v>
+        <v>177.0435117312206</v>
       </c>
       <c r="AB6" t="n">
-        <v>188.6422191685116</v>
+        <v>242.2387433590383</v>
       </c>
       <c r="AC6" t="n">
-        <v>170.6384705321395</v>
+        <v>219.1198176771335</v>
       </c>
       <c r="AD6" t="n">
-        <v>137871.756099982</v>
+        <v>177043.5117312206</v>
       </c>
       <c r="AE6" t="n">
-        <v>188642.2191685116</v>
+        <v>242238.7433590383</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.599537758009498e-06</v>
+        <v>4.603974533026719e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.307291666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>170638.4705321395</v>
+        <v>219119.8176771335</v>
       </c>
     </row>
   </sheetData>
@@ -8608,28 +8608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>203.444625292371</v>
+        <v>263.3724346007558</v>
       </c>
       <c r="AB2" t="n">
-        <v>278.3619116683136</v>
+        <v>360.3577841925297</v>
       </c>
       <c r="AC2" t="n">
-        <v>251.7954415021682</v>
+        <v>325.9657430345204</v>
       </c>
       <c r="AD2" t="n">
-        <v>203444.625292371</v>
+        <v>263372.4346007557</v>
       </c>
       <c r="AE2" t="n">
-        <v>278361.9116683136</v>
+        <v>360357.7841925297</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.928809632802793e-06</v>
+        <v>3.363675577485576e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.97222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>251795.4415021682</v>
+        <v>325965.7430345204</v>
       </c>
     </row>
     <row r="3">
@@ -8714,28 +8714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>169.5784337924743</v>
+        <v>219.4188000610096</v>
       </c>
       <c r="AB3" t="n">
-        <v>232.0246943872553</v>
+        <v>300.2184823176073</v>
       </c>
       <c r="AC3" t="n">
-        <v>209.8805832037064</v>
+        <v>271.5660517245898</v>
       </c>
       <c r="AD3" t="n">
-        <v>169578.4337924743</v>
+        <v>219418.8000610096</v>
       </c>
       <c r="AE3" t="n">
-        <v>232024.6943872553</v>
+        <v>300218.4823176073</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.289766728174137e-06</v>
+        <v>3.993153233326825e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.244791666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>209880.5832037064</v>
+        <v>271566.0517245898</v>
       </c>
     </row>
     <row r="4">
@@ -8820,28 +8820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>152.0993554886568</v>
+        <v>202.0249731032127</v>
       </c>
       <c r="AB4" t="n">
-        <v>208.1090483294726</v>
+        <v>276.4194809124738</v>
       </c>
       <c r="AC4" t="n">
-        <v>188.2474128398509</v>
+        <v>250.0383936114464</v>
       </c>
       <c r="AD4" t="n">
-        <v>152099.3554886568</v>
+        <v>202024.9731032127</v>
       </c>
       <c r="AE4" t="n">
-        <v>208109.0483294726</v>
+        <v>276419.4809124738</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.415107178228125e-06</v>
+        <v>4.211736033592608e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.758680555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>188247.4128398508</v>
+        <v>250038.3936114464</v>
       </c>
     </row>
     <row r="5">
@@ -8926,28 +8926,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>147.0111021422912</v>
+        <v>186.9346175715726</v>
       </c>
       <c r="AB5" t="n">
-        <v>201.1470756230838</v>
+        <v>255.7721907345936</v>
       </c>
       <c r="AC5" t="n">
-        <v>181.9498810373675</v>
+        <v>231.3616518294828</v>
       </c>
       <c r="AD5" t="n">
-        <v>147011.1021422911</v>
+        <v>186934.6175715726</v>
       </c>
       <c r="AE5" t="n">
-        <v>201147.0756230838</v>
+        <v>255772.1907345936</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.493134167847498e-06</v>
+        <v>4.347808290234142e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.489583333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>181949.8810373675</v>
+        <v>231361.6518294828</v>
       </c>
     </row>
     <row r="6">
@@ -9032,28 +9032,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>143.6729359276188</v>
+        <v>183.5964513569002</v>
       </c>
       <c r="AB6" t="n">
-        <v>196.5796493386718</v>
+        <v>251.2047644501816</v>
       </c>
       <c r="AC6" t="n">
-        <v>177.8183635071153</v>
+        <v>227.2301342992305</v>
       </c>
       <c r="AD6" t="n">
-        <v>143672.9359276188</v>
+        <v>183596.4513569002</v>
       </c>
       <c r="AE6" t="n">
-        <v>196579.6493386718</v>
+        <v>251204.7644501816</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.528113464974583e-06</v>
+        <v>4.408809130059385e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.368055555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>177818.3635071153</v>
+        <v>227230.1342992305</v>
       </c>
     </row>
     <row r="7">
@@ -9138,28 +9138,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>142.6792786922873</v>
+        <v>182.6027941215687</v>
       </c>
       <c r="AB7" t="n">
-        <v>195.2200836722284</v>
+        <v>249.8451987837383</v>
       </c>
       <c r="AC7" t="n">
-        <v>176.5885528797145</v>
+        <v>226.0003236718297</v>
       </c>
       <c r="AD7" t="n">
-        <v>142679.2786922872</v>
+        <v>182602.7941215687</v>
       </c>
       <c r="AE7" t="n">
-        <v>195220.0836722284</v>
+        <v>249845.1987837383</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.539667602144087e-06</v>
+        <v>4.428958536384935e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>176588.5528797145</v>
+        <v>226000.3236718297</v>
       </c>
     </row>
   </sheetData>
@@ -9435,28 +9435,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>256.7521516955018</v>
+        <v>318.6914522925805</v>
       </c>
       <c r="AB2" t="n">
-        <v>351.2996210551263</v>
+        <v>436.0477047013028</v>
       </c>
       <c r="AC2" t="n">
-        <v>317.7720782738448</v>
+        <v>394.431923761407</v>
       </c>
       <c r="AD2" t="n">
-        <v>256752.1516955018</v>
+        <v>318691.4522925805</v>
       </c>
       <c r="AE2" t="n">
-        <v>351299.6210551263</v>
+        <v>436047.7047013028</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.671224560336112e-06</v>
+        <v>2.84097098985943e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.22222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>317772.0782738448</v>
+        <v>394431.923761407</v>
       </c>
     </row>
     <row r="3">
@@ -9541,28 +9541,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>189.8876808257409</v>
+        <v>241.5748074449869</v>
       </c>
       <c r="AB3" t="n">
-        <v>259.8127021589007</v>
+        <v>330.5333090744103</v>
       </c>
       <c r="AC3" t="n">
-        <v>235.0165425143487</v>
+        <v>298.9876739628599</v>
       </c>
       <c r="AD3" t="n">
-        <v>189887.6808257409</v>
+        <v>241574.8074449869</v>
       </c>
       <c r="AE3" t="n">
-        <v>259812.7021589007</v>
+        <v>330533.3090744104</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.065179087771568e-06</v>
+        <v>3.510667576620228e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.887152777777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>235016.5425143487</v>
+        <v>298987.6739628599</v>
       </c>
     </row>
     <row r="4">
@@ -9647,28 +9647,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>179.306603127945</v>
+        <v>220.6563939318929</v>
       </c>
       <c r="AB4" t="n">
-        <v>245.3352048485809</v>
+        <v>301.9118128505371</v>
       </c>
       <c r="AC4" t="n">
-        <v>221.9207572280262</v>
+        <v>273.0977731680617</v>
       </c>
       <c r="AD4" t="n">
-        <v>179306.603127945</v>
+        <v>220656.3939318929</v>
       </c>
       <c r="AE4" t="n">
-        <v>245335.2048485809</v>
+        <v>301911.8128505371</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.222017410746051e-06</v>
+        <v>3.777282331000752e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.192708333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>221920.7572280262</v>
+        <v>273097.7731680617</v>
       </c>
     </row>
     <row r="5">
@@ -9753,28 +9753,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>163.8420727350376</v>
+        <v>215.4438584997121</v>
       </c>
       <c r="AB5" t="n">
-        <v>224.1759521180853</v>
+        <v>294.7797919113975</v>
       </c>
       <c r="AC5" t="n">
-        <v>202.7809138809246</v>
+        <v>266.6464222974971</v>
       </c>
       <c r="AD5" t="n">
-        <v>163842.0727350376</v>
+        <v>215443.8584997121</v>
       </c>
       <c r="AE5" t="n">
-        <v>224175.9521180853</v>
+        <v>294779.7919113975</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.295613311475752e-06</v>
+        <v>3.90239048457145e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.897569444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>202780.9138809246</v>
+        <v>266646.422297497</v>
       </c>
     </row>
     <row r="6">
@@ -9859,28 +9859,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>159.7651267980175</v>
+        <v>211.366912562692</v>
       </c>
       <c r="AB6" t="n">
-        <v>218.5976948248966</v>
+        <v>289.2015346182087</v>
       </c>
       <c r="AC6" t="n">
-        <v>197.7350376346628</v>
+        <v>261.6005460512352</v>
       </c>
       <c r="AD6" t="n">
-        <v>159765.1267980175</v>
+        <v>211366.912562692</v>
       </c>
       <c r="AE6" t="n">
-        <v>218597.6948248966</v>
+        <v>289201.5346182087</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.347586887150914e-06</v>
+        <v>3.990742118598839e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.697916666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>197735.0376346628</v>
+        <v>261600.5460512352</v>
       </c>
     </row>
     <row r="7">
@@ -9965,28 +9965,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>157.10258091469</v>
+        <v>208.7043666793645</v>
       </c>
       <c r="AB7" t="n">
-        <v>214.9546820840955</v>
+        <v>285.5585218774075</v>
       </c>
       <c r="AC7" t="n">
-        <v>194.439708916842</v>
+        <v>258.3052173334144</v>
       </c>
       <c r="AD7" t="n">
-        <v>157102.58091469</v>
+        <v>208704.3666793645</v>
       </c>
       <c r="AE7" t="n">
-        <v>214954.6820840955</v>
+        <v>285558.5218774076</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.375044181317014e-06</v>
+        <v>4.037417698911181e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.602430555555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>194439.708916842</v>
+        <v>258305.2173334144</v>
       </c>
     </row>
     <row r="8">
@@ -10071,28 +10071,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>154.1032061629511</v>
+        <v>195.5382483129196</v>
       </c>
       <c r="AB8" t="n">
-        <v>210.8508052256933</v>
+        <v>267.5440578802987</v>
       </c>
       <c r="AC8" t="n">
-        <v>190.7275003059771</v>
+        <v>242.0100284967249</v>
       </c>
       <c r="AD8" t="n">
-        <v>154103.2061629511</v>
+        <v>195538.2483129196</v>
       </c>
       <c r="AE8" t="n">
-        <v>210850.8052256932</v>
+        <v>267544.0578802987</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.401983857255475e-06</v>
+        <v>4.083213362542399e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.506944444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>190727.5003059771</v>
+        <v>242010.0284967248</v>
       </c>
     </row>
     <row r="9">
@@ -10177,28 +10177,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>152.4308945849403</v>
+        <v>193.6953445343166</v>
       </c>
       <c r="AB9" t="n">
-        <v>208.5626747474801</v>
+        <v>265.0225156272386</v>
       </c>
       <c r="AC9" t="n">
-        <v>188.6577457891926</v>
+        <v>239.7291386972893</v>
       </c>
       <c r="AD9" t="n">
-        <v>152430.8945849403</v>
+        <v>193695.3445343166</v>
       </c>
       <c r="AE9" t="n">
-        <v>208562.6747474801</v>
+        <v>265022.5156272387</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.414712560035133e-06</v>
+        <v>4.104851313655489e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.454861111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>188657.7457891926</v>
+        <v>239729.1386972893</v>
       </c>
     </row>
   </sheetData>
@@ -10474,28 +10474,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>165.1891807654706</v>
+        <v>213.2299125712399</v>
       </c>
       <c r="AB2" t="n">
-        <v>226.0191247555349</v>
+        <v>291.7505734196624</v>
       </c>
       <c r="AC2" t="n">
-        <v>204.4481767087656</v>
+        <v>263.9063081670774</v>
       </c>
       <c r="AD2" t="n">
-        <v>165189.1807654706</v>
+        <v>213229.9125712399</v>
       </c>
       <c r="AE2" t="n">
-        <v>226019.1247555349</v>
+        <v>291750.5734196624</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.238891368925336e-06</v>
+        <v>4.037250949297114e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.869791666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>204448.1767087656</v>
+        <v>263906.3081670774</v>
       </c>
     </row>
     <row r="3">
@@ -10580,28 +10580,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>140.0110231968143</v>
+        <v>187.9664141480121</v>
       </c>
       <c r="AB3" t="n">
-        <v>191.5692587881997</v>
+        <v>257.1839403301298</v>
       </c>
       <c r="AC3" t="n">
-        <v>173.2861575986514</v>
+        <v>232.6386660250244</v>
       </c>
       <c r="AD3" t="n">
-        <v>140011.0231968143</v>
+        <v>187966.4141480121</v>
       </c>
       <c r="AE3" t="n">
-        <v>191569.2587881997</v>
+        <v>257183.9403301298</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.547646042182926e-06</v>
+        <v>4.594008688868666e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.671875</v>
       </c>
       <c r="AH3" t="n">
-        <v>173286.1575986514</v>
+        <v>232638.6660250244</v>
       </c>
     </row>
     <row r="4">
@@ -10686,28 +10686,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>133.4446306172582</v>
+        <v>171.7919647158531</v>
       </c>
       <c r="AB4" t="n">
-        <v>182.5848307720602</v>
+        <v>235.053345050713</v>
       </c>
       <c r="AC4" t="n">
-        <v>165.1591907826454</v>
+        <v>212.6201836985826</v>
       </c>
       <c r="AD4" t="n">
-        <v>133444.6306172582</v>
+        <v>171791.9647158531</v>
       </c>
       <c r="AE4" t="n">
-        <v>182584.8307720602</v>
+        <v>235053.345050713</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.662544524877465e-06</v>
+        <v>4.801197842737254e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.298611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>165159.1907826454</v>
+        <v>212620.1836985826</v>
       </c>
     </row>
     <row r="5">
@@ -10792,28 +10792,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>132.3210815789559</v>
+        <v>170.6684156775508</v>
       </c>
       <c r="AB5" t="n">
-        <v>181.0475414103704</v>
+        <v>233.5160556890233</v>
       </c>
       <c r="AC5" t="n">
-        <v>163.7686181600357</v>
+        <v>211.2296110759729</v>
       </c>
       <c r="AD5" t="n">
-        <v>132321.0815789559</v>
+        <v>170668.4156775508</v>
       </c>
       <c r="AE5" t="n">
-        <v>181047.5414103704</v>
+        <v>233516.0556890233</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.674965982466064e-06</v>
+        <v>4.823596670182507e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.263888888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>163768.6181600357</v>
+        <v>211229.6110759729</v>
       </c>
     </row>
   </sheetData>
@@ -11089,28 +11089,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>144.9365892693847</v>
+        <v>181.9435607758402</v>
       </c>
       <c r="AB2" t="n">
-        <v>198.3086355893259</v>
+        <v>248.9432066367904</v>
       </c>
       <c r="AC2" t="n">
-        <v>179.382337736655</v>
+        <v>225.1844163894324</v>
       </c>
       <c r="AD2" t="n">
-        <v>144936.5892693847</v>
+        <v>181943.5607758402</v>
       </c>
       <c r="AE2" t="n">
-        <v>198308.6355893259</v>
+        <v>248943.2066367904</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.521919894813479e-06</v>
+        <v>4.705096410342035e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.123263888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>179382.337736655</v>
+        <v>225184.4163894324</v>
       </c>
     </row>
     <row r="3">
@@ -11195,28 +11195,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>123.9815677812248</v>
+        <v>160.9031984331087</v>
       </c>
       <c r="AB3" t="n">
-        <v>169.6370507189376</v>
+        <v>220.1548546442046</v>
       </c>
       <c r="AC3" t="n">
-        <v>153.4471286854653</v>
+        <v>199.143584306304</v>
       </c>
       <c r="AD3" t="n">
-        <v>123981.5677812248</v>
+        <v>160903.1984331087</v>
       </c>
       <c r="AE3" t="n">
-        <v>169637.0507189377</v>
+        <v>220154.8546442045</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.793613246673372e-06</v>
+        <v>5.211989360105739e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.237847222222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>153447.1286854653</v>
+        <v>199143.584306304</v>
       </c>
     </row>
     <row r="4">
@@ -11301,28 +11301,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>123.8112828555335</v>
+        <v>160.7329135074174</v>
       </c>
       <c r="AB4" t="n">
-        <v>169.4040593711662</v>
+        <v>219.9218632964331</v>
       </c>
       <c r="AC4" t="n">
-        <v>153.2363737049197</v>
+        <v>198.9328293257583</v>
       </c>
       <c r="AD4" t="n">
-        <v>123811.2828555335</v>
+        <v>160732.9135074173</v>
       </c>
       <c r="AE4" t="n">
-        <v>169404.0593711662</v>
+        <v>219921.8632964331</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.800003224012909e-06</v>
+        <v>5.223911015311464e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.220486111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>153236.3737049197</v>
+        <v>198932.8293257584</v>
       </c>
     </row>
   </sheetData>
@@ -20179,28 +20179,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.6017347161471</v>
+        <v>166.3505070940384</v>
       </c>
       <c r="AB2" t="n">
-        <v>166.380858128475</v>
+        <v>227.608102672382</v>
       </c>
       <c r="AC2" t="n">
-        <v>150.5017025457405</v>
+        <v>205.8855048033739</v>
       </c>
       <c r="AD2" t="n">
-        <v>121601.7347161471</v>
+        <v>166350.5070940384</v>
       </c>
       <c r="AE2" t="n">
-        <v>166380.858128475</v>
+        <v>227608.1026723821</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.755577011331664e-06</v>
+        <v>5.29907677952782e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.637152777777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>150501.7025457405</v>
+        <v>205885.5048033739</v>
       </c>
     </row>
     <row r="3">
@@ -20285,28 +20285,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.0190891474855</v>
+        <v>152.8011283874352</v>
       </c>
       <c r="AB3" t="n">
-        <v>160.1106802893815</v>
+        <v>209.0692449696159</v>
       </c>
       <c r="AC3" t="n">
-        <v>144.8299416793581</v>
+        <v>189.1159696603037</v>
       </c>
       <c r="AD3" t="n">
-        <v>117019.0891474855</v>
+        <v>152801.1283874352</v>
       </c>
       <c r="AE3" t="n">
-        <v>160110.6802893815</v>
+        <v>209069.2449696159</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.879167380342677e-06</v>
+        <v>5.536745642312765e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.272569444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>144829.9416793581</v>
+        <v>189115.9696603037</v>
       </c>
     </row>
   </sheetData>
@@ -20582,28 +20582,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.5625763951582</v>
+        <v>146.4875692910992</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.0671299990981</v>
+        <v>200.430754879444</v>
       </c>
       <c r="AC2" t="n">
-        <v>129.4130039080008</v>
+        <v>181.3019249401381</v>
       </c>
       <c r="AD2" t="n">
-        <v>104562.5763951582</v>
+        <v>146487.5692910992</v>
       </c>
       <c r="AE2" t="n">
-        <v>143067.129999098</v>
+        <v>200430.7548794441</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.946064248265942e-06</v>
+        <v>6.076550119164369e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>129413.0039080008</v>
+        <v>181301.9249401381</v>
       </c>
     </row>
   </sheetData>
@@ -20879,28 +20879,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>196.6322089360086</v>
+        <v>256.0082239025605</v>
       </c>
       <c r="AB2" t="n">
-        <v>269.0408630669448</v>
+        <v>350.2817462290467</v>
       </c>
       <c r="AC2" t="n">
-        <v>243.3639806971372</v>
+        <v>316.8513479925696</v>
       </c>
       <c r="AD2" t="n">
-        <v>196632.2089360086</v>
+        <v>256008.2239025605</v>
       </c>
       <c r="AE2" t="n">
-        <v>269040.8630669448</v>
+        <v>350281.7462290467</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.994570289726952e-06</v>
+        <v>3.504381317688792e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.71180555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>243363.9806971372</v>
+        <v>316851.3479925696</v>
       </c>
     </row>
     <row r="3">
@@ -20985,28 +20985,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>165.0904855448172</v>
+        <v>204.7314789341172</v>
       </c>
       <c r="AB3" t="n">
-        <v>225.884085600511</v>
+        <v>280.1226415929258</v>
       </c>
       <c r="AC3" t="n">
-        <v>204.3260255011685</v>
+        <v>253.3881298339759</v>
       </c>
       <c r="AD3" t="n">
-        <v>165090.4855448172</v>
+        <v>204731.4789341172</v>
       </c>
       <c r="AE3" t="n">
-        <v>225884.085600511</v>
+        <v>280122.6415929258</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.341528077513737e-06</v>
+        <v>4.113972464117173e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.123263888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>204326.0255011685</v>
+        <v>253388.1298339759</v>
       </c>
     </row>
     <row r="4">
@@ -21091,28 +21091,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>147.6772646399904</v>
+        <v>197.143053636355</v>
       </c>
       <c r="AB4" t="n">
-        <v>202.0585485414507</v>
+        <v>269.739823322836</v>
       </c>
       <c r="AC4" t="n">
-        <v>182.7743642596661</v>
+        <v>243.9962331672033</v>
       </c>
       <c r="AD4" t="n">
-        <v>147677.2646399904</v>
+        <v>197143.053636355</v>
       </c>
       <c r="AE4" t="n">
-        <v>202058.5485414507</v>
+        <v>269739.823322836</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.471467991225413e-06</v>
+        <v>4.342271766668014e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.645833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>182774.3642596661</v>
+        <v>243996.2331672033</v>
       </c>
     </row>
     <row r="5">
@@ -21197,28 +21197,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>142.5989142887813</v>
+        <v>182.1545668235098</v>
       </c>
       <c r="AB5" t="n">
-        <v>195.1101255499244</v>
+        <v>249.2319144201416</v>
       </c>
       <c r="AC5" t="n">
-        <v>176.4890890062759</v>
+        <v>225.4455703071445</v>
       </c>
       <c r="AD5" t="n">
-        <v>142598.9142887813</v>
+        <v>182154.5668235098</v>
       </c>
       <c r="AE5" t="n">
-        <v>195110.1255499244</v>
+        <v>249231.9144201416</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.545350083125515e-06</v>
+        <v>4.472079687652303e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.394097222222221</v>
       </c>
       <c r="AH5" t="n">
-        <v>176489.089006276</v>
+        <v>225445.5703071445</v>
       </c>
     </row>
     <row r="6">
@@ -21303,28 +21303,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>140.253533221561</v>
+        <v>179.8091857562894</v>
       </c>
       <c r="AB6" t="n">
-        <v>191.9010717028451</v>
+        <v>246.0228605730622</v>
       </c>
       <c r="AC6" t="n">
-        <v>173.5863027544254</v>
+        <v>222.542784055294</v>
       </c>
       <c r="AD6" t="n">
-        <v>140253.533221561</v>
+        <v>179809.1857562894</v>
       </c>
       <c r="AE6" t="n">
-        <v>191901.0717028451</v>
+        <v>246022.8605730622</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.569846144918451e-06</v>
+        <v>4.51511830190734e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.315972222222221</v>
       </c>
       <c r="AH6" t="n">
-        <v>173586.3027544254</v>
+        <v>222542.784055294</v>
       </c>
     </row>
     <row r="7">
@@ -21409,28 +21409,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>140.5541337762754</v>
+        <v>180.1097863110038</v>
       </c>
       <c r="AB7" t="n">
-        <v>192.3123666433656</v>
+        <v>246.4341555135827</v>
       </c>
       <c r="AC7" t="n">
-        <v>173.9583442830789</v>
+        <v>222.9148255839475</v>
       </c>
       <c r="AD7" t="n">
-        <v>140554.1337762754</v>
+        <v>180109.7863110038</v>
       </c>
       <c r="AE7" t="n">
-        <v>192312.3666433656</v>
+        <v>246434.1555135828</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.568664425354571e-06</v>
+        <v>4.51304206724981e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.315972222222221</v>
       </c>
       <c r="AH7" t="n">
-        <v>173958.3442830789</v>
+        <v>222914.8255839475</v>
       </c>
     </row>
   </sheetData>
@@ -21706,28 +21706,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>237.5609482876881</v>
+        <v>309.1956139854568</v>
       </c>
       <c r="AB2" t="n">
-        <v>325.0413698964284</v>
+        <v>423.0550798026762</v>
       </c>
       <c r="AC2" t="n">
-        <v>294.0198777520378</v>
+        <v>382.6792967478418</v>
       </c>
       <c r="AD2" t="n">
-        <v>237560.9482876881</v>
+        <v>309195.6139854568</v>
       </c>
       <c r="AE2" t="n">
-        <v>325041.3698964284</v>
+        <v>423055.0798026762</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.731813943950652e-06</v>
+        <v>2.961208846661103e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.89236111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>294019.8777520378</v>
+        <v>382679.2967478418</v>
       </c>
     </row>
     <row r="3">
@@ -21812,28 +21812,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>184.7237280980371</v>
+        <v>236.0132619601142</v>
       </c>
       <c r="AB3" t="n">
-        <v>252.7471542193441</v>
+        <v>322.9237571839409</v>
       </c>
       <c r="AC3" t="n">
-        <v>228.6253205535824</v>
+        <v>292.1043670247414</v>
       </c>
       <c r="AD3" t="n">
-        <v>184723.7280980371</v>
+        <v>236013.2619601142</v>
       </c>
       <c r="AE3" t="n">
-        <v>252747.1542193441</v>
+        <v>322923.757183941</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.120101438582638e-06</v>
+        <v>3.625137190793245e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.713541666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>228625.3205535824</v>
+        <v>292104.3670247414</v>
       </c>
     </row>
     <row r="4">
@@ -21918,28 +21918,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>175.8528481207238</v>
+        <v>216.8845647189365</v>
       </c>
       <c r="AB4" t="n">
-        <v>240.609624878786</v>
+        <v>296.751029720012</v>
       </c>
       <c r="AC4" t="n">
-        <v>217.6461799781538</v>
+        <v>268.4295279363076</v>
       </c>
       <c r="AD4" t="n">
-        <v>175852.8481207238</v>
+        <v>216884.5647189365</v>
       </c>
       <c r="AE4" t="n">
-        <v>240609.624878786</v>
+        <v>296751.029720012</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.25511360525647e-06</v>
+        <v>3.855992949726221e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.131944444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>217646.1799781538</v>
+        <v>268429.5279363076</v>
       </c>
     </row>
     <row r="5">
@@ -22024,28 +22024,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>159.5058305914956</v>
+        <v>210.7100235990011</v>
       </c>
       <c r="AB5" t="n">
-        <v>218.2429143157922</v>
+        <v>288.3027501581915</v>
       </c>
       <c r="AC5" t="n">
-        <v>197.4141168794096</v>
+        <v>260.7875403186297</v>
       </c>
       <c r="AD5" t="n">
-        <v>159505.8305914956</v>
+        <v>210710.0235990011</v>
       </c>
       <c r="AE5" t="n">
-        <v>218242.9143157922</v>
+        <v>288302.7501581915</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.345335230605371e-06</v>
+        <v>4.010261874558782e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.784722222222221</v>
       </c>
       <c r="AH5" t="n">
-        <v>197414.1168794096</v>
+        <v>260787.5403186298</v>
       </c>
     </row>
     <row r="6">
@@ -22130,28 +22130,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>156.2746506546112</v>
+        <v>207.4788436621167</v>
       </c>
       <c r="AB6" t="n">
-        <v>213.8218713765511</v>
+        <v>283.8817072189503</v>
       </c>
       <c r="AC6" t="n">
-        <v>193.4150120733155</v>
+        <v>256.7884355125357</v>
       </c>
       <c r="AD6" t="n">
-        <v>156274.6506546112</v>
+        <v>207478.8436621167</v>
       </c>
       <c r="AE6" t="n">
-        <v>213821.871376551</v>
+        <v>283881.7072189503</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.38450323046102e-06</v>
+        <v>4.077234789336212e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.637152777777779</v>
       </c>
       <c r="AH6" t="n">
-        <v>193415.0120733155</v>
+        <v>256788.4355125357</v>
       </c>
     </row>
     <row r="7">
@@ -22236,28 +22236,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>152.4520184988078</v>
+        <v>193.3983942424489</v>
       </c>
       <c r="AB7" t="n">
-        <v>208.5915774183549</v>
+        <v>264.6162151373832</v>
       </c>
       <c r="AC7" t="n">
-        <v>188.6838900297242</v>
+        <v>239.3616149559392</v>
       </c>
       <c r="AD7" t="n">
-        <v>152452.0184988078</v>
+        <v>193398.3942424489</v>
       </c>
       <c r="AE7" t="n">
-        <v>208591.5774183549</v>
+        <v>264616.2151373831</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.424928591911066e-06</v>
+        <v>4.146357652316671e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.489583333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>188683.8900297242</v>
+        <v>239361.6149559391</v>
       </c>
     </row>
     <row r="8">
@@ -22342,28 +22342,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>150.6097004825396</v>
+        <v>191.5560762261807</v>
       </c>
       <c r="AB8" t="n">
-        <v>206.0708366311633</v>
+        <v>262.0954743501916</v>
       </c>
       <c r="AC8" t="n">
-        <v>186.4037252053795</v>
+        <v>237.0814501315945</v>
       </c>
       <c r="AD8" t="n">
-        <v>150609.7004825396</v>
+        <v>191556.0762261807</v>
       </c>
       <c r="AE8" t="n">
-        <v>206070.8366311633</v>
+        <v>262095.4743501916</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.437241246014689e-06</v>
+        <v>4.167410918682198e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.446180555555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>186403.7252053795</v>
+        <v>237081.4501315945</v>
       </c>
     </row>
     <row r="9">
@@ -22448,28 +22448,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>150.728253582785</v>
+        <v>191.6746293264261</v>
       </c>
       <c r="AB9" t="n">
-        <v>206.2330462131127</v>
+        <v>262.257683932141</v>
       </c>
       <c r="AC9" t="n">
-        <v>186.5504537324903</v>
+        <v>237.2281786587053</v>
       </c>
       <c r="AD9" t="n">
-        <v>150728.253582785</v>
+        <v>191674.6293264261</v>
       </c>
       <c r="AE9" t="n">
-        <v>206233.0462131127</v>
+        <v>262257.683932141</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.437383588836696e-06</v>
+        <v>4.167654309044805e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.446180555555555</v>
       </c>
       <c r="AH9" t="n">
-        <v>186550.4537324903</v>
+        <v>237228.1786587053</v>
       </c>
     </row>
   </sheetData>
@@ -22745,28 +22745,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.0583582869926</v>
+        <v>139.6101616625322</v>
       </c>
       <c r="AB2" t="n">
-        <v>146.4819688896303</v>
+        <v>191.0207823522325</v>
       </c>
       <c r="AC2" t="n">
-        <v>132.5019353675783</v>
+        <v>172.7900269839411</v>
       </c>
       <c r="AD2" t="n">
-        <v>107058.3582869926</v>
+        <v>139610.1616625322</v>
       </c>
       <c r="AE2" t="n">
-        <v>146481.9688896303</v>
+        <v>191020.7823522325</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.86397390442913e-06</v>
+        <v>6.138815196253758e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.236111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>132501.9353675783</v>
+        <v>172790.0269839411</v>
       </c>
     </row>
   </sheetData>
@@ -23042,28 +23042,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>151.9925320012514</v>
+        <v>198.7131596760556</v>
       </c>
       <c r="AB2" t="n">
-        <v>207.9628877212851</v>
+        <v>271.888111674543</v>
       </c>
       <c r="AC2" t="n">
-        <v>188.115201594971</v>
+        <v>245.9394918937656</v>
       </c>
       <c r="AD2" t="n">
-        <v>151992.5320012514</v>
+        <v>198713.1596760556</v>
       </c>
       <c r="AE2" t="n">
-        <v>207962.887721285</v>
+        <v>271888.111674543</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.416156894041364e-06</v>
+        <v>4.451606071497702e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.383680555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>188115.2015949709</v>
+        <v>245939.4918937657</v>
       </c>
     </row>
     <row r="3">
@@ -23148,28 +23148,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>129.4211603148672</v>
+        <v>166.8488848691636</v>
       </c>
       <c r="AB3" t="n">
-        <v>177.0797412013493</v>
+        <v>228.2900051311839</v>
       </c>
       <c r="AC3" t="n">
-        <v>160.1794992341197</v>
+        <v>206.502327448564</v>
       </c>
       <c r="AD3" t="n">
-        <v>129421.1603148672</v>
+        <v>166848.8848691637</v>
       </c>
       <c r="AE3" t="n">
-        <v>177079.7412013493</v>
+        <v>228290.0051311839</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.707875557903334e-06</v>
+        <v>4.98907802889407e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.376736111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>160179.4992341197</v>
+        <v>206502.3274485641</v>
       </c>
     </row>
     <row r="4">
@@ -23254,28 +23254,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>126.5272151501362</v>
+        <v>163.9549397044327</v>
       </c>
       <c r="AB4" t="n">
-        <v>173.1201177551163</v>
+        <v>224.3303816849509</v>
       </c>
       <c r="AC4" t="n">
-        <v>156.5977766922275</v>
+        <v>202.9206049066718</v>
       </c>
       <c r="AD4" t="n">
-        <v>126527.2151501362</v>
+        <v>163954.9397044326</v>
       </c>
       <c r="AE4" t="n">
-        <v>173120.1177551163</v>
+        <v>224330.3816849509</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.763319087210553e-06</v>
+        <v>5.091228991150685e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.211805555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>156597.7766922275</v>
+        <v>202920.6049066718</v>
       </c>
     </row>
   </sheetData>
@@ -23551,28 +23551,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>182.3324223164232</v>
+        <v>230.8159921749138</v>
       </c>
       <c r="AB2" t="n">
-        <v>249.4752641519761</v>
+        <v>315.8126233764728</v>
       </c>
       <c r="AC2" t="n">
-        <v>225.6656950821163</v>
+        <v>285.6719098473166</v>
       </c>
       <c r="AD2" t="n">
-        <v>182332.4223164232</v>
+        <v>230815.9921749138</v>
       </c>
       <c r="AE2" t="n">
-        <v>249475.2641519761</v>
+        <v>315812.6233764728</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.148164535074269e-06</v>
+        <v>3.83753917255602e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.16493055555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>225665.6950821163</v>
+        <v>285671.9098473166</v>
       </c>
     </row>
     <row r="3">
@@ -23657,28 +23657,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>145.2097193290159</v>
+        <v>193.6931996789556</v>
       </c>
       <c r="AB3" t="n">
-        <v>198.682344186561</v>
+        <v>265.0195809415093</v>
       </c>
       <c r="AC3" t="n">
-        <v>179.7203801098734</v>
+        <v>239.726484093847</v>
       </c>
       <c r="AD3" t="n">
-        <v>145209.7193290159</v>
+        <v>193693.1996789555</v>
       </c>
       <c r="AE3" t="n">
-        <v>198682.344186561</v>
+        <v>265019.5809415093</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.470609327047827e-06</v>
+        <v>4.413563261950283e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.836805555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>179720.3801098734</v>
+        <v>239726.484093847</v>
       </c>
     </row>
     <row r="4">
@@ -23763,28 +23763,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>138.5736552572333</v>
+        <v>177.3434608748216</v>
       </c>
       <c r="AB4" t="n">
-        <v>189.6025885610678</v>
+        <v>242.6491470101353</v>
       </c>
       <c r="AC4" t="n">
-        <v>171.5071836177573</v>
+        <v>219.4910529797751</v>
       </c>
       <c r="AD4" t="n">
-        <v>138573.6552572333</v>
+        <v>177343.4608748216</v>
       </c>
       <c r="AE4" t="n">
-        <v>189602.5885610678</v>
+        <v>242649.1470101353</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.59017400923306e-06</v>
+        <v>4.627156841049279e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.428819444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>171507.1836177573</v>
+        <v>219491.0529797751</v>
       </c>
     </row>
     <row r="5">
@@ -23869,28 +23869,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>135.0760056538247</v>
+        <v>173.8458112714131</v>
       </c>
       <c r="AB5" t="n">
-        <v>184.8169500682764</v>
+        <v>237.8635085173439</v>
       </c>
       <c r="AC5" t="n">
-        <v>167.1782797460306</v>
+        <v>215.1621491080484</v>
       </c>
       <c r="AD5" t="n">
-        <v>135076.0056538247</v>
+        <v>173845.8112714131</v>
       </c>
       <c r="AE5" t="n">
-        <v>184816.9500682764</v>
+        <v>237863.5085173439</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.635781156045983e-06</v>
+        <v>4.70863068049941e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.28125</v>
       </c>
       <c r="AH5" t="n">
-        <v>167178.2797460306</v>
+        <v>215162.1491080484</v>
       </c>
     </row>
     <row r="6">
@@ -23975,28 +23975,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>135.2863687719978</v>
+        <v>174.0561743895862</v>
       </c>
       <c r="AB6" t="n">
-        <v>185.1047781671265</v>
+        <v>238.151336616194</v>
       </c>
       <c r="AC6" t="n">
-        <v>167.4386379350958</v>
+        <v>215.4225072971135</v>
       </c>
       <c r="AD6" t="n">
-        <v>135286.3687719978</v>
+        <v>174056.1743895862</v>
       </c>
       <c r="AE6" t="n">
-        <v>185104.7781671265</v>
+        <v>238151.336616194</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.635630222300326e-06</v>
+        <v>4.708361048377678e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.28125</v>
       </c>
       <c r="AH6" t="n">
-        <v>167438.6379350958</v>
+        <v>215422.5072971135</v>
       </c>
     </row>
   </sheetData>
